--- a/modules/LFO-Analog/prototype/prototype-osc-BOM.xlsx
+++ b/modules/LFO-Analog/prototype/prototype-osc-BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\LFO-Analog\prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51111760-3A44-4C04-B404-0F7A12D9825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B5C9C-E3BF-4D97-A9C1-E450EB4641A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1935" windowWidth="19095" windowHeight="10770"/>
+    <workbookView xWindow="3915" yWindow="1905" windowWidth="19095" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="prototype-osc-BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="prototype-BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Ref</t>
   </si>
@@ -151,7 +164,7 @@
     <t>https://www.mouser.ca/c/?m=YAGEO&amp;power+rating=166+mW+(1%2f6+W)&amp;tolerance=1+%25&amp;instock=y</t>
   </si>
   <si>
-    <t>2K2</t>
+    <t>10K</t>
   </si>
   <si>
     <t>R10</t>
@@ -175,67 +188,55 @@
     <t>R14</t>
   </si>
   <si>
-    <t>12K</t>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>RV2</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/datasheet/2/13/alpha_taiwan_08192019_RD901F-40-15R1-B(resistance_-1627810.pdf</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>RD901F-*</t>
+  </si>
+  <si>
+    <t>Thonk</t>
+  </si>
+  <si>
+    <t>Group_Pot_Alpha_6.35mm</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots/</t>
+  </si>
+  <si>
+    <t>311-1940F-*</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/c/passive-components/potentiometers-trimmers-rheostats/potentiometers/?q=RD901F&amp;orientation=Vertical</t>
+  </si>
+  <si>
+    <t>SynthCube</t>
+  </si>
+  <si>
+    <t>9MMALPHAPOTMSTR</t>
+  </si>
+  <si>
+    <t>https://synthcube.com/cart/alpha-9mm-potentiometer-right-angle-pcb-mount-6-35mm-round-shaft</t>
+  </si>
+  <si>
+    <t>R11</t>
   </si>
   <si>
     <t>R15</t>
-  </si>
-  <si>
-    <t>9K</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>11K</t>
-  </si>
-  <si>
-    <t>RV2</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/datasheet/2/13/alpha_taiwan_08192019_RD901F-40-15R1-B(resistance_-1627810.pdf</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>RD901F-*</t>
-  </si>
-  <si>
-    <t>Thonk</t>
-  </si>
-  <si>
-    <t>Group_Pot_Alpha_6.35mm</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots/</t>
-  </si>
-  <si>
-    <t>311-1940F-*</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/c/passive-components/potentiometers-trimmers-rheostats/potentiometers/?q=RD901F&amp;orientation=Vertical</t>
-  </si>
-  <si>
-    <t>SynthCube</t>
-  </si>
-  <si>
-    <t>9MMALPHAPOTMSTR</t>
-  </si>
-  <si>
-    <t>https://synthcube.com/cart/alpha-9mm-potentiometer-right-angle-pcb-mount-6-35mm-round-shaft</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R16</t>
   </si>
   <si>
     <t>Have</t>
@@ -247,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1114,18 +1115,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1467,9 +1467,12 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -1506,9 +1509,12 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>51</v>
@@ -1545,136 +1551,61 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="P12" t="s">
         <v>61</v>
       </c>
-      <c r="L14" t="s">
+      <c r="Q12" t="s">
         <v>62</v>
       </c>
-      <c r="M14" t="s">
+      <c r="R12" t="s">
         <v>63</v>
       </c>
-      <c r="N14" t="s">
+      <c r="S12" t="s">
         <v>64</v>
       </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="T12" t="s">
         <v>65</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T14" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
